--- a/DOS.xlsx
+++ b/DOS.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -28,12 +28,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -48,12 +60,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,13 +434,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:I53"/>
+  <dimension ref="A3:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.42578125" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -492,7 +515,7 @@
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H4" t="n">
@@ -528,7 +551,7 @@
           <t xml:space="preserve">2 </t>
         </is>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H5" t="n">
@@ -537,6 +560,16 @@
       <c r="I5" t="n">
         <v>21462000</v>
       </c>
+      <c r="J5" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K5" t="n">
+        <v>600000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21462000</v>
+      </c>
+      <c r="M5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,7 +597,7 @@
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H6" t="n">
@@ -600,7 +633,7 @@
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H7" t="n">
@@ -609,6 +642,16 @@
       <c r="I7" t="n">
         <v>21772620</v>
       </c>
+      <c r="J7" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K7" t="n">
+        <v>582000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>21772620</v>
+      </c>
+      <c r="M7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -636,7 +679,7 @@
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H8" t="n">
@@ -645,6 +688,16 @@
       <c r="I8" t="n">
         <v>22446000</v>
       </c>
+      <c r="J8" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K8" t="n">
+        <v>600000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>22446000</v>
+      </c>
+      <c r="M8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -672,7 +725,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H9" t="n">
@@ -681,6 +734,16 @@
       <c r="I9" t="n">
         <v>22554930</v>
       </c>
+      <c r="J9" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K9" t="n">
+        <v>577000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>22554930</v>
+      </c>
+      <c r="M9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -708,7 +771,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H10" t="n">
@@ -744,7 +807,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H11" t="n">
@@ -753,6 +816,16 @@
       <c r="I11" t="n">
         <v>22741680</v>
       </c>
+      <c r="J11" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K11" t="n">
+        <v>591000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>22741680</v>
+      </c>
+      <c r="M11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -780,7 +853,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H12" t="n">
@@ -789,6 +862,16 @@
       <c r="I12" t="n">
         <v>22741680</v>
       </c>
+      <c r="J12" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K12" t="n">
+        <v>591000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>22741680</v>
+      </c>
+      <c r="M12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -816,7 +899,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H13" t="n">
@@ -825,6 +908,16 @@
       <c r="I13" t="n">
         <v>22838400</v>
       </c>
+      <c r="J13" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K13" t="n">
+        <v>585000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>22838400</v>
+      </c>
+      <c r="M13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -852,7 +945,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H14" t="n">
@@ -861,6 +954,16 @@
       <c r="I14" t="n">
         <v>22866510</v>
       </c>
+      <c r="J14" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K14" t="n">
+        <v>577000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>22866510</v>
+      </c>
+      <c r="M14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -888,7 +991,7 @@
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H15" t="n">
@@ -897,6 +1000,16 @@
       <c r="I15" t="n">
         <v>22866510</v>
       </c>
+      <c r="J15" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K15" t="n">
+        <v>577000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>22866510</v>
+      </c>
+      <c r="M15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -924,7 +1037,7 @@
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H16" t="n">
@@ -933,6 +1046,16 @@
       <c r="I16" t="n">
         <v>22866510</v>
       </c>
+      <c r="J16" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K16" t="n">
+        <v>577000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22866510</v>
+      </c>
+      <c r="M16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -960,7 +1083,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H17" t="n">
@@ -969,6 +1092,16 @@
       <c r="I17" t="n">
         <v>22866510</v>
       </c>
+      <c r="J17" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K17" t="n">
+        <v>577000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>22866510</v>
+      </c>
+      <c r="M17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -996,7 +1129,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H18" t="n">
@@ -1032,7 +1165,7 @@
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H19" t="n">
@@ -1041,6 +1174,15 @@
       <c r="I19" t="n">
         <v>22877440</v>
       </c>
+      <c r="J19" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K19" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>22877440</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1068,7 +1210,7 @@
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H20" t="n">
@@ -1077,6 +1219,15 @@
       <c r="I20" t="n">
         <v>22877440</v>
       </c>
+      <c r="J20" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K20" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>22877440</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1104,7 +1255,7 @@
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H21" t="n">
@@ -1113,6 +1264,15 @@
       <c r="I21" t="n">
         <v>22877440</v>
       </c>
+      <c r="J21" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K21" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22877440</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1140,7 +1300,7 @@
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H22" t="n">
@@ -1149,6 +1309,15 @@
       <c r="I22" t="n">
         <v>22877440</v>
       </c>
+      <c r="J22" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K22" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>22877440</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1176,7 +1345,7 @@
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H23" t="n">
@@ -1185,6 +1354,15 @@
       <c r="I23" t="n">
         <v>22877440</v>
       </c>
+      <c r="J23" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K23" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22877440</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1212,7 +1390,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H24" t="n">
@@ -1221,6 +1399,15 @@
       <c r="I24" t="n">
         <v>22877440</v>
       </c>
+      <c r="J24" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K24" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>22877440</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1248,7 +1435,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H25" t="n">
@@ -1257,6 +1444,15 @@
       <c r="I25" t="n">
         <v>22877440</v>
       </c>
+      <c r="J25" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K25" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>22877440</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1284,7 +1480,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H26" t="n">
@@ -1320,7 +1516,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H27" t="n">
@@ -1329,6 +1525,15 @@
       <c r="I27" t="n">
         <v>22970370</v>
       </c>
+      <c r="J27" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K27" t="n">
+        <v>577000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>22970370</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1356,7 +1561,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H28" t="n">
@@ -1365,6 +1570,15 @@
       <c r="I28" t="n">
         <v>23102190</v>
       </c>
+      <c r="J28" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K28" t="n">
+        <v>591000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>23102190</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1392,7 +1606,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H29" t="n">
@@ -1428,7 +1642,7 @@
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H30" t="n">
@@ -1437,6 +1651,15 @@
       <c r="I30" t="n">
         <v>23223180</v>
       </c>
+      <c r="J30" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K30" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>23223180</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1464,7 +1687,7 @@
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H31" t="n">
@@ -1473,6 +1696,15 @@
       <c r="I31" t="n">
         <v>23223180</v>
       </c>
+      <c r="J31" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K31" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>23223180</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1500,7 +1732,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H32" t="n">
@@ -1509,6 +1741,15 @@
       <c r="I32" t="n">
         <v>23223180</v>
       </c>
+      <c r="J32" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K32" t="n">
+        <v>586000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>23223180</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1536,7 +1777,7 @@
           <t xml:space="preserve">2 </t>
         </is>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H33" t="n">
@@ -1572,7 +1813,7 @@
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H34" t="n">
@@ -1581,6 +1822,15 @@
       <c r="I34" t="n">
         <v>31961740</v>
       </c>
+      <c r="J34" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <v>553000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>32610410</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1608,7 +1858,7 @@
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H35" t="n">
@@ -1617,6 +1867,15 @@
       <c r="I35" t="n">
         <v>32029760</v>
       </c>
+      <c r="J35" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <v>560000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>32435200</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1644,7 +1903,7 @@
           <t xml:space="preserve">2 </t>
         </is>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H36" t="n">
@@ -1653,6 +1912,15 @@
       <c r="I36" t="n">
         <v>32677200</v>
       </c>
+      <c r="J36" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>535000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>33491000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1680,7 +1948,7 @@
           <t xml:space="preserve">1 </t>
         </is>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H37" t="n">
@@ -1716,7 +1984,7 @@
           <t xml:space="preserve">1 </t>
         </is>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H38" t="n">
@@ -1725,6 +1993,15 @@
       <c r="I38" t="n">
         <v>33544700</v>
       </c>
+      <c r="J38" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K38" t="n">
+        <v>554000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>33544700</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1752,7 +2029,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H39" t="n">
@@ -1788,7 +2065,7 @@
           <t xml:space="preserve">1 </t>
         </is>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H40" t="n">
@@ -1824,7 +2101,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H41" t="n">
@@ -1833,6 +2110,15 @@
       <c r="I41" t="n">
         <v>35750000</v>
       </c>
+      <c r="J41" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K41" t="n">
+        <v>520000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>35750000</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1860,7 +2146,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H42" t="n">
@@ -1896,7 +2182,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H43" t="n">
@@ -1905,6 +2191,15 @@
       <c r="I43" t="n">
         <v>36152820</v>
       </c>
+      <c r="J43" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K43" t="n">
+        <v>558000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>36152820</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1932,7 +2227,7 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H44" t="n">
@@ -1968,7 +2263,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H45" t="n">
@@ -1977,6 +2272,15 @@
       <c r="I45" t="n">
         <v>36551830</v>
       </c>
+      <c r="J45" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K45" t="n">
+        <v>511000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>36551830</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2004,7 +2308,7 @@
           <t xml:space="preserve">1 </t>
         </is>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H46" t="n">
@@ -2040,7 +2344,7 @@
           <t xml:space="preserve">1 </t>
         </is>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H47" t="n">
@@ -2049,6 +2353,15 @@
       <c r="I47" t="n">
         <v>48379760</v>
       </c>
+      <c r="J47" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K47" t="n">
+        <v>572000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>48379760</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2076,7 +2389,7 @@
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H48" t="n">
@@ -2085,6 +2398,15 @@
       <c r="I48" t="n">
         <v>51794000</v>
       </c>
+      <c r="J48" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K48" s="6" t="n">
+        <v>545000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>51230000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2112,7 +2434,7 @@
           <t xml:space="preserve">2 </t>
         </is>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H49" t="n">
@@ -2148,7 +2470,7 @@
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H50" t="n">
@@ -2157,6 +2479,15 @@
       <c r="I50" t="n">
         <v>67451240</v>
       </c>
+      <c r="J50" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K50" t="n">
+        <v>562000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>67451240</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2184,7 +2515,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G51" s="1" t="n">
+      <c r="G51" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H51" t="n">
@@ -2220,7 +2551,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="G52" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H52" t="n">
@@ -2256,7 +2587,7 @@
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="G53" s="1" t="n">
+      <c r="G53" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="H53" t="n">
@@ -2264,6 +2595,645 @@
       </c>
       <c r="I53" t="n">
         <v>67536000</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K53" t="n">
+        <v>536000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>67536000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>36.79</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9  </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 </t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H54" t="n">
+        <v>600000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22074000</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K54" t="n">
+        <v>600000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>22074000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>36.79</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4  </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 </t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H55" t="n">
+        <v>600000</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22074000</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K55" t="n">
+        <v>600000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>22074000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>36.79</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3  </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 </t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H56" t="n">
+        <v>600000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>22074000</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K56" t="n">
+        <v>600000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>22074000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11  </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 </t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H57" t="n">
+        <v>600000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22446000</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K57" t="n">
+        <v>600000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>22446000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10  </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 </t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H58" t="n">
+        <v>600000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>22446000</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K58" t="n">
+        <v>600000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>22446000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>39.18</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3  </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H59" t="n">
+        <v>585000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22920300</v>
+      </c>
+      <c r="J59" s="7" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K59" t="n">
+        <v>585000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>22920300</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>39.84</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11  </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H60" t="n">
+        <v>577000</v>
+      </c>
+      <c r="I60" t="n">
+        <v>22987680</v>
+      </c>
+      <c r="J60" s="7" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K60" t="n">
+        <v>577000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>22987680</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6  </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H61" t="n">
+        <v>566500</v>
+      </c>
+      <c r="I61" t="n">
+        <v>47914570</v>
+      </c>
+      <c r="J61" s="7" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K61" t="n">
+        <v>566500</v>
+      </c>
+      <c r="L61" t="n">
+        <v>47914570</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6  </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H62" t="n">
+        <v>557000</v>
+      </c>
+      <c r="I62" t="n">
+        <v>49227660</v>
+      </c>
+      <c r="J62" s="7" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K62" t="n">
+        <v>557000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>49227660</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5  </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H63" t="n">
+        <v>557000</v>
+      </c>
+      <c r="I63" t="n">
+        <v>49227660</v>
+      </c>
+      <c r="J63" s="7" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K63" t="n">
+        <v>557000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>49227660</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4  </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H64" t="n">
+        <v>557000</v>
+      </c>
+      <c r="I64" t="n">
+        <v>49227660</v>
+      </c>
+      <c r="J64" s="7" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K64" t="n">
+        <v>557000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>49227660</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3  </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 </t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H65" t="n">
+        <v>555000</v>
+      </c>
+      <c r="I65" t="n">
+        <v>51359700</v>
+      </c>
+      <c r="J65" s="7" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K65" t="n">
+        <v>555000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>51359700</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>118.27</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6  </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 </t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H66" t="n">
+        <v>567000</v>
+      </c>
+      <c r="I66" t="n">
+        <v>67059090</v>
+      </c>
+      <c r="J66" s="7" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K66" t="n">
+        <v>567000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>67059090</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>118.27</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5  </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 </t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>45648</v>
+      </c>
+      <c r="H67" t="n">
+        <v>567000</v>
+      </c>
+      <c r="I67" t="n">
+        <v>67059090</v>
+      </c>
+      <c r="J67" s="7" t="n">
+        <v>45648</v>
+      </c>
+      <c r="K67" t="n">
+        <v>567000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>67059090</v>
       </c>
     </row>
   </sheetData>
